--- a/seagrass/initial_datasheets/MarineGEO-Seagrass-Shoots_sheath_measurements_v0.5.0.xlsx
+++ b/seagrass/initial_datasheets/MarineGEO-Seagrass-Shoots_sheath_measurements_v0.5.0.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-shoots\Fieldsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\seagrass\initial_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0187B7-C756-4EFD-B878-4297764918EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20D801F-5986-409C-8449-B022FB2CA213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="weighed_epifauna" sheetId="1" r:id="rId1"/>
+    <sheet name="shoots sheath measures" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -452,6 +452,54 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -461,15 +509,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -484,45 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,7 +888,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -912,24 +912,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -947,92 +947,92 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="27" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="18" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="18" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="35.25" customHeight="1">
       <c r="A7" s="12" t="s">
@@ -1041,396 +1041,396 @@
       <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="30"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" ht="18" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
     </row>
     <row r="18" spans="1:16" ht="18" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
     </row>
     <row r="25" spans="1:16" ht="18" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1"/>
     <row r="29" spans="1:16" ht="27.75" customHeight="1"/>
@@ -1461,6 +1461,109 @@
     <row r="55" ht="27.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A26:P27"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:H4"/>
@@ -1485,116 +1588,13 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A26:P27"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="76" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;LDatasheets available for download at https://marinegeo.github.io/seagrass&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000
 &amp;RPage __ of __</oddFooter>
-    <firstFooter>&amp;LDatasheets available for download at https://marinegeo.github.io/seagrass&amp;RPage __ of __</firstFooter>
+    <firstFooter>&amp;Lhttps://doi.org/10.25573/serc.14925114.v1</firstFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
